--- a/report_template/aqiTrend.xlsx
+++ b/report_template/aqiTrend.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AQI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>AQI月報製作方法</t>
     </r>
@@ -152,6 +148,10 @@
       </rPr>
       <t>:先選"一"種汙染物與"二"個鄰近測站_查詢_產生的excel檔先下載，以下表格會自動運算</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,9 +343,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -358,6 +355,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -396,8 +404,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13657356205519475"/>
-          <c:y val="5.1400554097404488E-2"/>
+          <c:x val="0.14583352067703298"/>
+          <c:y val="4.561862275964329E-2"/>
           <c:w val="0.84347173047831114"/>
           <c:h val="0.77402340644679757"/>
         </c:manualLayout>
@@ -416,17 +424,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$B$915:$B$917</c:f>
@@ -447,6 +444,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -474,17 +486,6 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$C$915:$C$917</c:f>
@@ -505,6 +506,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -527,17 +543,6 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$D$915:$D$917</c:f>
@@ -558,6 +563,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -585,17 +605,6 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$E$915:$E$917</c:f>
@@ -616,6 +625,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -643,17 +667,6 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$F$915:$F$917</c:f>
@@ -674,6 +687,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -690,17 +718,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$A$915:$A$917</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$G$915:$G$917</c:f>
@@ -721,6 +738,21 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -745,11 +777,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="101741696"/>
-        <c:axId val="101743232"/>
+        <c:axId val="-621409056"/>
+        <c:axId val="-621400896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101741696"/>
+        <c:axId val="-621409056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +804,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101743232"/>
+        <c:crossAx val="-621400896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101743232"/>
+        <c:axId val="-621400896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +835,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101741696"/>
+        <c:crossAx val="-621409056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -826,15 +858,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>900</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>323980</xdr:colOff>
+      <xdr:row>906</xdr:row>
+      <xdr:rowOff>58319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>918</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>343419</xdr:colOff>
+      <xdr:row>916</xdr:row>
+      <xdr:rowOff>116635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -914,29 +946,33 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.00431</cdr:x>
-      <cdr:y>0.2904</cdr:y>
+      <cdr:x>2.4304E-7</cdr:x>
+      <cdr:y>0.05605</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.11638</cdr:x>
-      <cdr:y>0.50505</cdr:y>
+      <cdr:x>0.07311</cdr:x>
+      <cdr:y>0.56637</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="工作表1!$G$912">
       <cdr:nvSpPr>
         <cdr:cNvPr id="4" name="文字方塊 3"/>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvSpPr txBox="1">
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvSpPr>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="28575" y="1095375"/>
-          <a:ext cx="742950" cy="809625"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-410078" y="533187"/>
+          <a:ext cx="1120971" cy="300814"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="none" numCol="3" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fld id="{4B1D7967-D66B-44A9-9EA8-4ECD19CA9F95}" type="TxLink">
@@ -1221,176 +1257,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1068"/>
+  <dimension ref="A1:G1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C892" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="7" width="14.625" style="5" collapsed="1"/>
-    <col min="8" max="8" width="14.625" style="5"/>
-    <col min="9" max="16384" width="14.625" style="5" collapsed="1"/>
+    <col min="3" max="16384" width="14.625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6560,7 +6617,7 @@
     </row>
     <row r="900" spans="1:7" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A900" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -6654,6 +6711,10 @@
         <f>LEFT(C1,2)</f>
         <v/>
       </c>
+      <c r="D909" s="15" t="str">
+        <f>LEFT(D1,2)</f>
+        <v/>
+      </c>
       <c r="E909" s="13"/>
       <c r="F909" s="14"/>
       <c r="G909" s="11"/>
@@ -6667,7 +6728,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C910" s="17" t="e">
-        <f t="shared" ref="C910" si="0">AVERAGE(C2:C899)</f>
+        <f t="shared" ref="C910:D910" si="0">AVERAGE(C2:C899)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D910" s="17" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E910" s="13"/>
@@ -6683,7 +6748,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C911" s="17" t="e">
-        <f t="shared" ref="C911" si="1">STDEV(C2:C899)</f>
+        <f t="shared" ref="C911:D911" si="1">STDEV(C2:C899)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D911" s="17" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E911" s="13"/>
@@ -6695,48 +6764,48 @@
       <c r="F912" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G912" s="20" t="s">
-        <v>24</v>
+      <c r="G912" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
-      <c r="B913" s="21" t="s">
+      <c r="B913" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C913" s="21" t="s">
+      <c r="C913" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D913" s="21" t="s">
+      <c r="D913" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E913" s="21" t="s">
+      <c r="E913" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F913" s="21" t="s">
+      <c r="F913" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G913" s="21" t="s">
+      <c r="G913" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B914" s="22" t="s">
+      <c r="B914" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C914" s="22" t="s">
+      <c r="C914" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D914" s="22" t="s">
+      <c r="D914" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E914" s="22" t="s">
+      <c r="E914" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F914" s="22" t="s">
+      <c r="F914" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G914" s="22" t="s">
+      <c r="G914" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6745,88 +6814,88 @@
         <f>B909</f>
         <v/>
       </c>
-      <c r="B915" s="23" t="e">
+      <c r="B915" s="22" t="e">
         <f>QUARTILE(工作表1!B2:B899,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C915" s="23" t="e">
+      <c r="C915" s="22" t="e">
         <f>QUARTILE(工作表1!B2:B899,2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D915" s="23" t="e">
+      <c r="D915" s="22" t="e">
         <f>AVERAGE(工作表1!B2:B899)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E915" s="23" t="e">
+      <c r="E915" s="22" t="e">
         <f>PERCENTILE(工作表1!B2:B899,0.05)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F915" s="23" t="e">
+      <c r="F915" s="22" t="e">
         <f>PERCENTILE(工作表1!B2:B899,0.95)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G915" s="23" t="e">
+      <c r="G915" s="22" t="e">
         <f>QUARTILE(工作表1!B2:B899,3)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A916" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="A916" s="16" t="str">
+        <f>C909</f>
+        <v/>
       </c>
-      <c r="B916" s="23" t="e">
-        <f>QUARTILE(工作表1!#REF!,1)</f>
-        <v>#REF!</v>
+      <c r="B916" s="22" t="e">
+        <f>QUARTILE(工作表1!C2:C899,1)</f>
+        <v>#NUM!</v>
       </c>
-      <c r="C916" s="23" t="e">
-        <f>QUARTILE(工作表1!#REF!,2)</f>
-        <v>#REF!</v>
+      <c r="C916" s="22" t="e">
+        <f>QUARTILE(工作表1!C2:C899,2)</f>
+        <v>#NUM!</v>
       </c>
-      <c r="D916" s="23" t="e">
+      <c r="D916" s="22" t="e">
         <f>AVERAGE(工作表1!C2:C899)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E916" s="23" t="e">
-        <f>PERCENTILE(工作表1!#REF!,0.05)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F916" s="23" t="e">
-        <f>PERCENTILE(工作表1!#REF!,0.95)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G916" s="23" t="e">
-        <f>QUARTILE(工作表1!#REF!,3)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A917" s="16" t="str">
-        <f>C909</f>
-        <v/>
-      </c>
-      <c r="B917" s="23" t="e">
-        <f>QUARTILE(工作表1!C3:C899,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C917" s="23" t="e">
-        <f>QUARTILE(工作表1!C2:C899,2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D917" s="23" t="e">
-        <f>AVERAGE(工作表1!C2:C899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E917" s="23" t="e">
+      <c r="E916" s="22" t="e">
         <f>PERCENTILE(工作表1!C2:C899,0.05)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F917" s="23" t="e">
+      <c r="F916" s="22" t="e">
         <f>PERCENTILE(工作表1!C2:C899,0.95)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G917" s="23" t="e">
+      <c r="G916" s="22" t="e">
         <f>QUARTILE(工作表1!C2:C899,3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A917" s="24" t="str">
+        <f>D909</f>
+        <v/>
+      </c>
+      <c r="B917" s="22" t="e">
+        <f>QUARTILE(工作表1!D2:D899,1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C917" s="22" t="e">
+        <f>QUARTILE(工作表1!D2:D899,2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D917" s="22" t="e">
+        <f>AVERAGE(工作表1!D2:D899)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E917" s="22" t="e">
+        <f>PERCENTILE(工作表1!D2:D899,0.05)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F917" s="22" t="e">
+        <f>PERCENTILE(工作表1!D2:D899,0.95)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G917" s="22" t="e">
+        <f>QUARTILE(工作表1!D2:D899,3)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6849,7 +6918,7 @@
       <c r="D920" s="7"/>
     </row>
     <row r="921" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="24"/>
+      <c r="A921" s="23"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
       <c r="D921" s="9"/>

--- a/report_template/aqiTrend.xlsx
+++ b/report_template/aqiTrend.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,90 @@
   <si>
     <t>AQI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>監測車</t>
+  </si>
+  <si>
+    <t>新竹</t>
+  </si>
+  <si>
+    <t>湖口</t>
+  </si>
+  <si>
+    <t>2017/11/02 00:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 01:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 02:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 03:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 04:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 05:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 06:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 07:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 08:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 09:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 10:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 11:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 12:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 13:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 14:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 15:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 16:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 17:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 18:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 19:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 20:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 21:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 22:00</t>
+  </si>
+  <si>
+    <t>2017/11/02 23:00</t>
   </si>
 </sst>
 </file>
@@ -294,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,9 +445,6 @@
     <xf numFmtId="177" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
@@ -405,9 +486,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.14583352067703298"/>
-          <c:y val="4.561862275964329E-2"/>
-          <c:w val="0.84347173047831114"/>
-          <c:h val="0.77402340644679757"/>
+          <c:y val="4.5618622759643304E-2"/>
+          <c:w val="0.84347173047831125"/>
+          <c:h val="0.7740234064467979"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -424,6 +505,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$B$915:$B$917</c:f>
@@ -431,34 +529,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>65.350398063659668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>35.630862236022949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>38.907645225524902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -486,6 +569,23 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$C$915:$C$917</c:f>
@@ -493,34 +593,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>83.359718322753906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>52.251523971557617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41.136816024780273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -543,6 +628,23 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$D$915:$D$917</c:f>
@@ -550,34 +652,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>76.936103661855057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>46.150125185648598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>45.582245190938316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -605,6 +692,23 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$E$915:$E$917</c:f>
@@ -612,34 +716,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>52.095583152770999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>32.21342763900757</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>35.446202850341798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -667,6 +756,23 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$F$915:$F$917</c:f>
@@ -674,34 +780,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>92.495496368408197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>55.810985374450681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>60.700490379333495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -718,6 +809,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$909:$D$909</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>監測車</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>新竹</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>湖口</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>工作表1!$G$915:$G$917</c:f>
@@ -725,34 +833,19 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>88.7852783203125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>54.369113922119141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>52.934389114379883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>工作表1!$A$915:$A$917</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0B75-4047-8B3A-F2FF25288E9F}"/>
             </c:ext>
@@ -777,11 +870,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="-621409056"/>
-        <c:axId val="-621400896"/>
+        <c:axId val="91945600"/>
+        <c:axId val="90902912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-621409056"/>
+        <c:axId val="91945600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +897,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-621400896"/>
+        <c:crossAx val="90902912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -812,7 +905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-621400896"/>
+        <c:axId val="90902912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +928,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-621409056"/>
+        <c:crossAx val="91945600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -846,7 +939,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1259,7 +1352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A899" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D909" sqref="D909"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1268,154 +1363,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27"/>
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="26">
+        <v>91.881484985351563</v>
+      </c>
+      <c r="C2" s="27">
+        <v>52.142074584960938</v>
+      </c>
+      <c r="D2" s="26">
+        <v>38.616687774658203</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27"/>
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="26">
+        <v>94.373115539550781</v>
+      </c>
+      <c r="C3" s="27">
+        <v>54.921119689941406</v>
+      </c>
+      <c r="D3" s="26">
+        <v>43.3392333984375</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="26">
+        <v>92.603851318359375</v>
+      </c>
+      <c r="C4" s="27">
+        <v>55.910919189453125</v>
+      </c>
+      <c r="D4" s="26">
+        <v>48.799690246582031</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27"/>
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="26">
+        <v>90.175041198730469</v>
+      </c>
+      <c r="C5" s="27">
+        <v>55.853813171386719</v>
+      </c>
+      <c r="D5" s="26">
+        <v>51.685245513916016</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27"/>
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="26">
+        <v>88.217330932617188</v>
+      </c>
+      <c r="C6" s="27">
+        <v>55.568294525146484</v>
+      </c>
+      <c r="D6" s="26">
+        <v>52.656009674072266</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="26">
+        <v>87.505447387695313</v>
+      </c>
+      <c r="C7" s="27">
+        <v>54.825950622558594</v>
+      </c>
+      <c r="D7" s="26">
+        <v>55.454090118408203</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="26">
+        <v>88.74078369140625</v>
+      </c>
+      <c r="C8" s="27">
+        <v>54.197807312011719</v>
+      </c>
+      <c r="D8" s="26">
+        <v>57.738235473632813</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="27"/>
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="26">
+        <v>88.2801513671875</v>
+      </c>
+      <c r="C9" s="27">
+        <v>54.340560913085938</v>
+      </c>
+      <c r="D9" s="26">
+        <v>60.336452484130859</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="26">
+        <v>88.91876220703125</v>
+      </c>
+      <c r="C10" s="27">
+        <v>53.940845489501953</v>
+      </c>
+      <c r="D10" s="26">
+        <v>63.248741149902344</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="26">
+        <v>89.431739807128906</v>
+      </c>
+      <c r="C11" s="27">
+        <v>53.426902770996094</v>
+      </c>
+      <c r="D11" s="26">
+        <v>60.764732360839844</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27"/>
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="26">
+        <v>84.155364990234375</v>
+      </c>
+      <c r="C12" s="27">
+        <v>53.740974426269531</v>
+      </c>
+      <c r="D12" s="26">
+        <v>53.769527435302734</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="26">
+        <v>77.0992431640625</v>
+      </c>
+      <c r="C13" s="27">
+        <v>54.45477294921875</v>
+      </c>
+      <c r="D13" s="26">
+        <v>46.672077178955078</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="26">
+        <v>68.661224365234375</v>
+      </c>
+      <c r="C14" s="27">
+        <v>52.360973358154297</v>
+      </c>
+      <c r="D14" s="26">
+        <v>42.34307861328125</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="26">
+        <v>60.286006927490234</v>
+      </c>
+      <c r="C15" s="27">
+        <v>48.295455932617188</v>
+      </c>
+      <c r="D15" s="26">
+        <v>39.772727966308594</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27"/>
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="26">
+        <v>54.685092926025391</v>
+      </c>
+      <c r="C16" s="27">
+        <v>43.290046691894531</v>
+      </c>
+      <c r="D16" s="26">
+        <v>39.36688232421875</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="26">
+        <v>50.937187194824219</v>
+      </c>
+      <c r="C17" s="27">
+        <v>38.014072418212891</v>
+      </c>
+      <c r="D17" s="26">
+        <v>38.014072418212891</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="26">
+        <v>51.63861083984375</v>
+      </c>
+      <c r="C18" s="27">
+        <v>35.532405853271484</v>
+      </c>
+      <c r="D18" s="26">
+        <v>39.699073791503906</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="26">
+        <v>54.779315948486328</v>
+      </c>
+      <c r="C19" s="27">
+        <v>35.648147583007813</v>
+      </c>
+      <c r="D19" s="26">
+        <v>39.930553436279297</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27"/>
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="26">
+        <v>59.270523071289063</v>
+      </c>
+      <c r="C20" s="27">
+        <v>34.606479644775391</v>
+      </c>
+      <c r="D20" s="26">
+        <v>39.699073791503906</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="26">
+        <v>67.038528442382813</v>
+      </c>
+      <c r="C21" s="27">
+        <v>36.120132446289063</v>
+      </c>
+      <c r="D21" s="26">
+        <v>39.004631042480469</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="26">
+        <v>72.377716064453125</v>
+      </c>
+      <c r="C22" s="27">
+        <v>35.579006195068359</v>
+      </c>
+      <c r="D22" s="26">
+        <v>37.731479644775391</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27"/>
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="26">
+        <v>76.02093505859375</v>
+      </c>
+      <c r="C23" s="27">
+        <v>34.632034301757813</v>
+      </c>
+      <c r="D23" s="26">
+        <v>36.226852416992188</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27"/>
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="26">
+        <v>82.564071655273438</v>
+      </c>
+      <c r="C24" s="27">
+        <v>31.79112434387207</v>
+      </c>
+      <c r="D24" s="26">
+        <v>35.308441162109375</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="26">
+        <v>86.824958801269531</v>
+      </c>
+      <c r="C25" s="27">
+        <v>28.409090042114258</v>
+      </c>
+      <c r="D25" s="26">
+        <v>33.796295166015625</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -6689,7 +6984,7 @@
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908" s="15" t="str">
         <f>LEFT(B1,8)</f>
-        <v/>
+        <v>監測車</v>
       </c>
       <c r="B908" s="7"/>
       <c r="C908" s="7"/>
@@ -6701,19 +6996,19 @@
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909" s="15" t="str">
         <f>RIGHT(A908,4)</f>
-        <v/>
+        <v>監測車</v>
       </c>
       <c r="B909" s="15" t="str">
         <f>LEFT(B1,3)</f>
-        <v/>
+        <v>監測車</v>
       </c>
       <c r="C909" s="15" t="str">
         <f>LEFT(C1,2)</f>
-        <v/>
+        <v>新竹</v>
       </c>
       <c r="D909" s="15" t="str">
         <f>LEFT(D1,2)</f>
-        <v/>
+        <v>湖口</v>
       </c>
       <c r="E909" s="13"/>
       <c r="F909" s="14"/>
@@ -6723,17 +7018,17 @@
       <c r="A910" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B910" s="17" t="e">
+      <c r="B910" s="17">
         <f>AVERAGE(B2:B899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C910" s="17" t="e">
+        <v>76.936103661855057</v>
+      </c>
+      <c r="C910" s="17">
         <f t="shared" ref="C910:D910" si="0">AVERAGE(C2:C899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D910" s="17" t="e">
+        <v>46.150125185648598</v>
+      </c>
+      <c r="D910" s="17">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>45.582245190938316</v>
       </c>
       <c r="E910" s="13"/>
       <c r="F910" s="14"/>
@@ -6743,17 +7038,17 @@
       <c r="A911" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B911" s="17" t="e">
+      <c r="B911" s="17">
         <f>STDEV(B2:B899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C911" s="17" t="e">
+        <v>14.767469367189118</v>
+      </c>
+      <c r="C911" s="17">
         <f t="shared" ref="C911:D911" si="1">STDEV(C2:C899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D911" s="17" t="e">
+        <v>9.7313934473485713</v>
+      </c>
+      <c r="D911" s="17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.0964050279527431</v>
       </c>
       <c r="E911" s="13"/>
       <c r="F911" s="14"/>
@@ -6812,91 +7107,91 @@
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" s="16" t="str">
         <f>B909</f>
-        <v/>
-      </c>
-      <c r="B915" s="22" t="e">
+        <v>監測車</v>
+      </c>
+      <c r="B915" s="22">
         <f>QUARTILE(工作表1!B2:B899,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C915" s="22" t="e">
+        <v>65.350398063659668</v>
+      </c>
+      <c r="C915" s="22">
         <f>QUARTILE(工作表1!B2:B899,2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D915" s="22" t="e">
+        <v>83.359718322753906</v>
+      </c>
+      <c r="D915" s="22">
         <f>AVERAGE(工作表1!B2:B899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E915" s="22" t="e">
+        <v>76.936103661855057</v>
+      </c>
+      <c r="E915" s="22">
         <f>PERCENTILE(工作表1!B2:B899,0.05)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F915" s="22" t="e">
+        <v>52.095583152770999</v>
+      </c>
+      <c r="F915" s="22">
         <f>PERCENTILE(工作表1!B2:B899,0.95)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G915" s="22" t="e">
+        <v>92.495496368408197</v>
+      </c>
+      <c r="G915" s="22">
         <f>QUARTILE(工作表1!B2:B899,3)</f>
-        <v>#NUM!</v>
+        <v>88.7852783203125</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" s="16" t="str">
         <f>C909</f>
-        <v/>
-      </c>
-      <c r="B916" s="22" t="e">
+        <v>新竹</v>
+      </c>
+      <c r="B916" s="22">
         <f>QUARTILE(工作表1!C2:C899,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C916" s="22" t="e">
+        <v>35.630862236022949</v>
+      </c>
+      <c r="C916" s="22">
         <f>QUARTILE(工作表1!C2:C899,2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D916" s="22" t="e">
+        <v>52.251523971557617</v>
+      </c>
+      <c r="D916" s="22">
         <f>AVERAGE(工作表1!C2:C899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E916" s="22" t="e">
+        <v>46.150125185648598</v>
+      </c>
+      <c r="E916" s="22">
         <f>PERCENTILE(工作表1!C2:C899,0.05)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F916" s="22" t="e">
+        <v>32.21342763900757</v>
+      </c>
+      <c r="F916" s="22">
         <f>PERCENTILE(工作表1!C2:C899,0.95)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G916" s="22" t="e">
+        <v>55.810985374450681</v>
+      </c>
+      <c r="G916" s="22">
         <f>QUARTILE(工作表1!C2:C899,3)</f>
-        <v>#NUM!</v>
+        <v>54.369113922119141</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" s="24" t="str">
         <f>D909</f>
-        <v/>
-      </c>
-      <c r="B917" s="22" t="e">
+        <v>湖口</v>
+      </c>
+      <c r="B917" s="22">
         <f>QUARTILE(工作表1!D2:D899,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C917" s="22" t="e">
+        <v>38.907645225524902</v>
+      </c>
+      <c r="C917" s="22">
         <f>QUARTILE(工作表1!D2:D899,2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D917" s="22" t="e">
+        <v>41.136816024780273</v>
+      </c>
+      <c r="D917" s="22">
         <f>AVERAGE(工作表1!D2:D899)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E917" s="22" t="e">
+        <v>45.582245190938316</v>
+      </c>
+      <c r="E917" s="22">
         <f>PERCENTILE(工作表1!D2:D899,0.05)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F917" s="22" t="e">
+        <v>35.446202850341798</v>
+      </c>
+      <c r="F917" s="22">
         <f>PERCENTILE(工作表1!D2:D899,0.95)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G917" s="22" t="e">
+        <v>60.700490379333495</v>
+      </c>
+      <c r="G917" s="22">
         <f>QUARTILE(工作表1!D2:D899,3)</f>
-        <v>#NUM!</v>
+        <v>52.934389114379883</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
